--- a/ActiTime[ShakunthalaH_Selenium]/data/TestScript.xlsx
+++ b/ActiTime[ShakunthalaH_Selenium]/data/TestScript.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16020" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CreateCustomer" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BankData" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TestCase_Name</t>
   </si>
@@ -28,6 +29,24 @@
   </si>
   <si>
     <t>HDFC_001</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>TaskName</t>
+  </si>
+  <si>
+    <t>SBI-008</t>
+  </si>
+  <si>
+    <t>BankingProject</t>
+  </si>
+  <si>
+    <t>CreateCustomerAccount</t>
   </si>
 </sst>
 </file>
@@ -368,7 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -400,12 +419,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="4" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
